--- a/Result/DailyFiles/2024-10-30.xlsx
+++ b/Result/DailyFiles/2024-10-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT5"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,23 +812,17 @@
       <c r="D2" t="n">
         <v>91.59999999999999</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
+      <c r="E2" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89.5</v>
       </c>
       <c r="G2" t="n">
         <v>89.5</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-1.20</t>
-        </is>
+      <c r="H2" t="n">
+        <v>-1.2</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1012,10 +1006,8 @@
       <c r="BL2" t="b">
         <v>0</v>
       </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>6245</t>
-        </is>
+      <c r="BM2" t="n">
+        <v>6245</v>
       </c>
       <c r="BN2" t="n">
         <v>0.9</v>
@@ -1034,10 +1026,8 @@
       <c r="BR2" t="n">
         <v>89.5</v>
       </c>
-      <c r="BS2" t="inlineStr">
-        <is>
-          <t>-1.20</t>
-        </is>
+      <c r="BS2" t="n">
+        <v>-1.2</v>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
@@ -1058,23 +1048,17 @@
       <c r="D3" t="n">
         <v>170</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>172.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>168.00</t>
-        </is>
+      <c r="E3" t="n">
+        <v>172</v>
+      </c>
+      <c r="F3" t="n">
+        <v>168</v>
       </c>
       <c r="G3" t="n">
         <v>168.5</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.00</t>
-        </is>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1258,10 +1242,8 @@
       <c r="BL3" t="b">
         <v>0</v>
       </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>4968</t>
-        </is>
+      <c r="BM3" t="n">
+        <v>4968</v>
       </c>
       <c r="BN3" t="n">
         <v>0.4</v>
@@ -1280,10 +1262,8 @@
       <c r="BR3" t="n">
         <v>168.5</v>
       </c>
-      <c r="BS3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.00</t>
-        </is>
+      <c r="BS3" t="n">
+        <v>0</v>
       </c>
       <c r="BT3" t="inlineStr">
         <is>
@@ -1304,23 +1284,17 @@
       <c r="D4" t="n">
         <v>24.1</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>23.20</t>
-        </is>
+      <c r="E4" t="n">
+        <v>26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23.2</v>
       </c>
       <c r="G4" t="n">
         <v>26</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>+1.25</t>
-        </is>
+      <c r="H4" t="n">
+        <v>1.25</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1504,10 +1478,8 @@
       <c r="BL4" t="b">
         <v>0</v>
       </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>6645</t>
-        </is>
+      <c r="BM4" t="n">
+        <v>6645</v>
       </c>
       <c r="BN4" t="n">
         <v>0.99</v>
@@ -1526,10 +1498,8 @@
       <c r="BR4" t="n">
         <v>26</v>
       </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>+1.25</t>
-        </is>
+      <c r="BS4" t="n">
+        <v>1.25</v>
       </c>
       <c r="BT4" t="inlineStr">
         <is>
@@ -1550,23 +1520,17 @@
       <c r="D5" t="n">
         <v>121.5</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>123.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>120.50</t>
-        </is>
+      <c r="E5" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>120.5</v>
       </c>
       <c r="G5" t="n">
         <v>122.5</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>+0.50</t>
-        </is>
+      <c r="H5" t="n">
+        <v>0.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -1750,10 +1714,8 @@
       <c r="BL5" t="b">
         <v>1</v>
       </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>9906</t>
-        </is>
+      <c r="BM5" t="n">
+        <v>9906</v>
       </c>
       <c r="BN5" t="n">
         <v>0.9</v>
@@ -1772,14 +1734,2472 @@
       <c r="BR5" t="n">
         <v>122.5</v>
       </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>+0.50</t>
-        </is>
+      <c r="BS5" t="n">
+        <v>0.5</v>
       </c>
       <c r="BT5" t="inlineStr">
         <is>
           <t>0.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1180863</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44599390</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>36.90</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>+0.70</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>38.23377668384249</v>
+      </c>
+      <c r="O6" t="n">
+        <v>38.82670275607428</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.5929260722317906</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.4584551093589623</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.4584551093589623</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.1344709628728283</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="V6" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>51.851851851852</v>
+      </c>
+      <c r="X6" t="n">
+        <v>19.03833658219642</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>48870555</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>48010698.04</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.790969502846247</v>
+      </c>
+      <c r="AC6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>37.76000000000001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.369156696634566</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.2882605881249461</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.1749999999999972</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.379111079072255</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>41.82822215814451</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>36.31177784185549</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>35.10638297872345</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>44599390</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-48858973</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>1180863</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>-1293848</v>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AY6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.05833333333333331</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.03666666666666667</v>
+      </c>
+      <c r="BL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>2457</t>
+        </is>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP6" t="n">
+        <v>36.58212695694265</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>76.10988217547742</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>+0.70</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3278381</v>
+      </c>
+      <c r="C7" t="n">
+        <v>483717638</v>
+      </c>
+      <c r="D7" t="n">
+        <v>151</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>151.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>145.50</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>146</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-2.50</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2,111</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>148.5352761719311</v>
+      </c>
+      <c r="O7" t="n">
+        <v>147.2004726893428</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.334803482588342</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.30290519932284</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.30290519932284</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0318982832655017</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>146</v>
+      </c>
+      <c r="V7" t="n">
+        <v>153</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>273573202.05</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>259529048.88</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.411399313721408</v>
+      </c>
+      <c r="AC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.020450994759838</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.5993283277515483</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.8000000000000114</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>3.423602288757708</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>153.6472045775154</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>139.9527954224846</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>54.54545454545455</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-483717638</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-1061856080</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-3278381</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>-7105740</v>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>-0.02500000000000002</v>
+      </c>
+      <c r="BE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0.04166666666666665</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BL7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>2458</t>
+        </is>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP7" t="n">
+        <v>121.5847128969271</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>147.1207665551277</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>146</v>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>-2.50</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>-3.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22451</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1591308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>70.50</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>71.03115100599422</v>
+      </c>
+      <c r="O8" t="n">
+        <v>71.05704339065323</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.02589238465901644</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.06929611105375887</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.06929611105375887</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.04340372639474242</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>33.33333333333373</v>
+      </c>
+      <c r="X8" t="n">
+        <v>36.75213675213694</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2751956.8</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3371455.36</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-18.37481128624524</v>
+      </c>
+      <c r="AC8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>71.20000000000002</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>70.97</v>
+      </c>
+      <c r="AF8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.3814650122321521</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.03490065264596298</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.07999999999998408</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.02500000000000568</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>70.97</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.4780442613288615</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>71.92608852265772</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>70.01391147734228</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>53.84615384615398</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-1591308</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-7411428</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-22451</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-104447</v>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.02499999999999999</v>
+      </c>
+      <c r="BE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.07333333333333331</v>
+      </c>
+      <c r="BL8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>2459</t>
+        </is>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP8" t="n">
+        <v>51.63246386439321</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>74.83831239131456</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.00</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B9" t="n">
+        <v>101385</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2779336</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>+0.10</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>28.24848232412675</v>
+      </c>
+      <c r="O9" t="n">
+        <v>28.48326824550476</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2347859213780126</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.0682577400829929</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.0682577400829929</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.1665281812950197</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="V9" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.896551724137788</v>
+      </c>
+      <c r="X9" t="n">
+        <v>13.40996168582362</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5133767.4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7003756.18</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-26.69979839303885</v>
+      </c>
+      <c r="AC9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>27.94</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>28.625</v>
+      </c>
+      <c r="AF9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.2310266939833739</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.2135155471823282</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.2600000000000016</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.1325000000000003</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>28.625</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.6129093691051744</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>29.85081873821035</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>27.39918126178965</v>
+      </c>
+      <c r="AP9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>38.74999999999997</v>
+      </c>
+      <c r="AR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.09999999999999787</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2779336</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1857493</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>101385</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>57555</v>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AY9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.04166666666666663</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.03000000000000001</v>
+      </c>
+      <c r="BL9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP9" t="n">
+        <v>24.25811601418955</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>30.05101640590178</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>27.45</v>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>+0.10</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16745928</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3907437014</v>
+      </c>
+      <c r="D10" t="n">
+        <v>218</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>244.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>218.00</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-7.50</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16,027</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>255.5690002119824</v>
+      </c>
+      <c r="O10" t="n">
+        <v>261.7895331672711</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-6.220532955288718</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-3.547602152068796</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-3.547602152068796</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-2.672930803219922</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1204439366.3</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1201444104.54</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.2493051277776084</v>
+      </c>
+      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>261.825</v>
+      </c>
+      <c r="AF10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>6.984307807903991</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.160546446924732</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-6.699999999999989</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-1.675000000000011</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>261.825</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>10.10377079166514</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>282.0325415833303</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>241.6174584166697</v>
+      </c>
+      <c r="AP10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34.39490445859873</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-3907437014</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-7486915930</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-16745928</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-31539917</v>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BI10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.05000000000000001</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="BL10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>3035</t>
+        </is>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP10" t="n">
+        <v>218.3061557270226</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>358.0294607113336</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>-7.50</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>7.57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7346411</v>
+      </c>
+      <c r="C11" t="n">
+        <v>593104947</v>
+      </c>
+      <c r="D11" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>77.60</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-0.90</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>6,675</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>75.67223292611055</v>
+      </c>
+      <c r="O11" t="n">
+        <v>72.60956751334048</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.062665412770073</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.719670678067691</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.719670678067691</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.342994734702382</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="W11" t="n">
+        <v>67.39130434782609</v>
+      </c>
+      <c r="X11" t="n">
+        <v>79.89130434782609</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>267255935.2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>133453358.52</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>100.2616780603147</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>79.58</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>70.91499999999999</v>
+      </c>
+      <c r="AF11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6.310845690819001</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.720726267857152</v>
+      </c>
+      <c r="AI11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-1.019999999999996</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.5549999999999926</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>70.91499999999999</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>7.091304905527412</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>85.09760981105481</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>56.73239018894517</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>68.2170542635659</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.8999999999999915</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-593104947</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>309980370</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-7346411</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3389860</v>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0.1416666666666667</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0.1366666666666667</v>
+      </c>
+      <c r="BL11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>3055</t>
+        </is>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP11" t="n">
+        <v>16.70887035417793</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>87.57240818463487</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>-0.90</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>-1.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B12" t="n">
+        <v>67659</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5727636</v>
+      </c>
+      <c r="D12" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-1.30</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>85.67825235181225</v>
+      </c>
+      <c r="O12" t="n">
+        <v>87.06900876000768</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-1.390756408195429</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-1.39755206242882</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-1.39755206242882</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.00679565423339068</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>22.22222222222215</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6300904.05</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8829632.640000001</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-28.6391143675033</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>85.14000000000001</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>86.66499999999999</v>
+      </c>
+      <c r="AF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.3288295742309703</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.7292842762271906</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.4599999999999795</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.3250000000000171</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>86.66499999999999</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.864706834585072</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>90.39441366917013</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>82.93558633082985</v>
+      </c>
+      <c r="AP12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-1.299999999999997</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-5727636</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-4588359</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-67659</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-54188</v>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;&lt;span style='color:green;'&gt;[成交量低於均線，成交量震盪指標為負]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.07666666666666666</v>
+      </c>
+      <c r="BL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP12" t="n">
+        <v>76.70080057872917</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>123.211421643493</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>-1.30</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>-1.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9034</v>
+      </c>
+      <c r="C13" t="n">
+        <v>773295</v>
+      </c>
+      <c r="D13" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>+0.60</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>84.45002441700655</v>
+      </c>
+      <c r="O13" t="n">
+        <v>83.68571554197129</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.7643088750352547</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.249344331869694</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.249344331869694</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5149645431655607</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>77.77777777777783</v>
+      </c>
+      <c r="X13" t="n">
+        <v>76.20797720797729</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1905541.65</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2266190.28</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-15.91431369125808</v>
+      </c>
+      <c r="AC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>82.965</v>
+      </c>
+      <c r="AF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.736178434249585</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.6106374174162148</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>82.965</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.100444815046012</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>87.16588963009202</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>78.76411036990798</v>
+      </c>
+      <c r="AP13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>69.49152542372877</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>773295</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-2052124</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>9034</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>-24130</v>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AY13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:red;'&gt;[股價高於短期均線，短期均線高於長期均線]：買入信號&lt;/span&gt;&lt;br&gt;均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="BE13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>0.3250000000000001</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0.2066666666666667</v>
+      </c>
+      <c r="BL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>6796</t>
+        </is>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP13" t="n">
+        <v>85.67665284600326</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>108.9365891631291</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>+0.60</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B14" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13336841</v>
+      </c>
+      <c r="D14" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>108.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>106.00</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>106</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>110.8518688136788</v>
+      </c>
+      <c r="O14" t="n">
+        <v>112.4335851744565</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-1.581716360777691</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.7276947028662049</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.7276947028662049</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.8540216579114857</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>106</v>
+      </c>
+      <c r="V14" t="n">
+        <v>116</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.444444444444449</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26645797.9</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>38719300.2</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-31.18212942288664</v>
+      </c>
+      <c r="AC14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>109</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="AF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1.556670235535447</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.8948967972753548</v>
+      </c>
+      <c r="AI14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-1.400000000000006</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-0.6749999999999972</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>3.664911860793918</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>120.5298237215878</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>105.8701762784122</v>
+      </c>
+      <c r="AP14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>38.98305084745763</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-13336841</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-68967887</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>-124999</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>-643176</v>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;&lt;span style='color:green;'&gt;[成交量低於均線，成交量震盪指標為負]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="BE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0.03333333333333334</v>
+      </c>
+      <c r="BL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>6799</t>
+        </is>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP14" t="n">
+        <v>101.2006663153445</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>193.2993336846555</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>106</v>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>-1.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1478246</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1244082129</v>
+      </c>
+      <c r="D15" t="n">
+        <v>816</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>859.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>816.00</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>846</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>+33.00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2,060</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>850.7407227028442</v>
+      </c>
+      <c r="O15" t="n">
+        <v>840.5602808535335</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10.18044184931068</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>18.61842834896715</v>
+      </c>
+      <c r="R15" t="n">
+        <v>18.61842834896715</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-8.437986499656464</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>813</v>
+      </c>
+      <c r="V15" t="n">
+        <v>900</v>
+      </c>
+      <c r="W15" t="n">
+        <v>37.93103448275862</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12.64367816091956</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1762276830.2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1836865376.2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-4.060643037123627</v>
+      </c>
+      <c r="AC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>839.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>860.45</v>
+      </c>
+      <c r="AF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15.57577891756415</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10.16931796030863</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-8.199999999999932</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.550000000000068</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>860.45</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>26.9550795916005</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>914.3601591832011</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>806.539840816799</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51.22950819672131</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>33</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1244082129</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-2200060219</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1478246</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-2748494</v>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AY15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:red;'&gt;[KD 指標 %K 高於 %D]：買入信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.02499999999999999</v>
+      </c>
+      <c r="BE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0.01666666666666665</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>0.02666666666666667</v>
+      </c>
+      <c r="BL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>6805</t>
+        </is>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP15" t="n">
+        <v>410.7429133982282</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>946.1681035509243</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>846</v>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>+33.00</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>3.68%</t>
         </is>
       </c>
     </row>

--- a/Result/DailyFiles/2024-10-30.xlsx
+++ b/Result/DailyFiles/2024-10-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT15"/>
+  <dimension ref="A1:BT22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1756,23 +1756,17 @@
       <c r="D6" t="n">
         <v>37.5</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>38.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>36.90</t>
-        </is>
+      <c r="E6" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36.9</v>
       </c>
       <c r="G6" t="n">
         <v>37.85</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>+0.70</t>
-        </is>
+      <c r="H6" t="n">
+        <v>0.7</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1956,10 +1950,8 @@
       <c r="BL6" t="b">
         <v>1</v>
       </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>2457</t>
-        </is>
+      <c r="BM6" t="n">
+        <v>2457</v>
       </c>
       <c r="BN6" t="n">
         <v>0.9</v>
@@ -1978,10 +1970,8 @@
       <c r="BR6" t="n">
         <v>37.85</v>
       </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>+0.70</t>
-        </is>
+      <c r="BS6" t="n">
+        <v>0.7</v>
       </c>
       <c r="BT6" t="inlineStr">
         <is>
@@ -2002,23 +1992,17 @@
       <c r="D7" t="n">
         <v>151</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>151.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>145.50</t>
-        </is>
+      <c r="E7" t="n">
+        <v>151</v>
+      </c>
+      <c r="F7" t="n">
+        <v>145.5</v>
       </c>
       <c r="G7" t="n">
         <v>146</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>-2.50</t>
-        </is>
+      <c r="H7" t="n">
+        <v>-2.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -2202,10 +2186,8 @@
       <c r="BL7" t="b">
         <v>0</v>
       </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>2458</t>
-        </is>
+      <c r="BM7" t="n">
+        <v>2458</v>
       </c>
       <c r="BN7" t="n">
         <v>0.4</v>
@@ -2224,10 +2206,8 @@
       <c r="BR7" t="n">
         <v>146</v>
       </c>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>-2.50</t>
-        </is>
+      <c r="BS7" t="n">
+        <v>-2.5</v>
       </c>
       <c r="BT7" t="inlineStr">
         <is>
@@ -2248,23 +2228,17 @@
       <c r="D8" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>71.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>70.50</t>
-        </is>
+      <c r="E8" t="n">
+        <v>71</v>
+      </c>
+      <c r="F8" t="n">
+        <v>70.5</v>
       </c>
       <c r="G8" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.00</t>
-        </is>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -2448,10 +2422,8 @@
       <c r="BL8" t="b">
         <v>0</v>
       </c>
-      <c r="BM8" t="inlineStr">
-        <is>
-          <t>2459</t>
-        </is>
+      <c r="BM8" t="n">
+        <v>2459</v>
       </c>
       <c r="BN8" t="n">
         <v>0.9</v>
@@ -2470,10 +2442,8 @@
       <c r="BR8" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.00</t>
-        </is>
+      <c r="BS8" t="n">
+        <v>0</v>
       </c>
       <c r="BT8" t="inlineStr">
         <is>
@@ -2494,23 +2464,17 @@
       <c r="D9" t="n">
         <v>27.6</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>27.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>27.30</t>
-        </is>
+      <c r="E9" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27.3</v>
       </c>
       <c r="G9" t="n">
         <v>27.45</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>+0.10</t>
-        </is>
+      <c r="H9" t="n">
+        <v>0.1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -2694,10 +2658,8 @@
       <c r="BL9" t="b">
         <v>0</v>
       </c>
-      <c r="BM9" t="inlineStr">
-        <is>
-          <t>2460</t>
-        </is>
+      <c r="BM9" t="n">
+        <v>2460</v>
       </c>
       <c r="BN9" t="n">
         <v>0.4</v>
@@ -2716,10 +2678,8 @@
       <c r="BR9" t="n">
         <v>27.45</v>
       </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>+0.10</t>
-        </is>
+      <c r="BS9" t="n">
+        <v>0.1</v>
       </c>
       <c r="BT9" t="inlineStr">
         <is>
@@ -2740,23 +2700,17 @@
       <c r="D10" t="n">
         <v>218</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>244.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>218.00</t>
-        </is>
+      <c r="E10" t="n">
+        <v>244</v>
+      </c>
+      <c r="F10" t="n">
+        <v>218</v>
       </c>
       <c r="G10" t="n">
         <v>234.5</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-7.50</t>
-        </is>
+      <c r="H10" t="n">
+        <v>-7.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -2940,10 +2894,8 @@
       <c r="BL10" t="b">
         <v>0</v>
       </c>
-      <c r="BM10" t="inlineStr">
-        <is>
-          <t>3035</t>
-        </is>
+      <c r="BM10" t="n">
+        <v>3035</v>
       </c>
       <c r="BN10" t="n">
         <v>0.65</v>
@@ -2962,10 +2914,8 @@
       <c r="BR10" t="n">
         <v>234.5</v>
       </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>-7.50</t>
-        </is>
+      <c r="BS10" t="n">
+        <v>-7.5</v>
       </c>
       <c r="BT10" t="inlineStr">
         <is>
@@ -2986,23 +2936,17 @@
       <c r="D11" t="n">
         <v>78.59999999999999</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>77.60</t>
-        </is>
+      <c r="E11" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>77.59999999999999</v>
       </c>
       <c r="G11" t="n">
         <v>77.7</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>-0.90</t>
-        </is>
+      <c r="H11" t="n">
+        <v>-0.9</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -3186,10 +3130,8 @@
       <c r="BL11" t="b">
         <v>0</v>
       </c>
-      <c r="BM11" t="inlineStr">
-        <is>
-          <t>3055</t>
-        </is>
+      <c r="BM11" t="n">
+        <v>3055</v>
       </c>
       <c r="BN11" t="n">
         <v>0.9</v>
@@ -3208,10 +3150,8 @@
       <c r="BR11" t="n">
         <v>77.7</v>
       </c>
-      <c r="BS11" t="inlineStr">
-        <is>
-          <t>-0.90</t>
-        </is>
+      <c r="BS11" t="n">
+        <v>-0.9</v>
       </c>
       <c r="BT11" t="inlineStr">
         <is>
@@ -3232,23 +3172,17 @@
       <c r="D12" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>85.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
+      <c r="E12" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>84.2</v>
       </c>
       <c r="G12" t="n">
         <v>84.2</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-1.30</t>
-        </is>
+      <c r="H12" t="n">
+        <v>-1.3</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -3432,10 +3366,8 @@
       <c r="BL12" t="b">
         <v>0</v>
       </c>
-      <c r="BM12" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
+      <c r="BM12" t="n">
+        <v>4588</v>
       </c>
       <c r="BN12" t="n">
         <v>0.9</v>
@@ -3454,10 +3386,8 @@
       <c r="BR12" t="n">
         <v>84.2</v>
       </c>
-      <c r="BS12" t="inlineStr">
-        <is>
-          <t>-1.30</t>
-        </is>
+      <c r="BS12" t="n">
+        <v>-1.3</v>
       </c>
       <c r="BT12" t="inlineStr">
         <is>
@@ -3478,23 +3408,17 @@
       <c r="D13" t="n">
         <v>85.2</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>85.20</t>
-        </is>
+      <c r="E13" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>85.2</v>
       </c>
       <c r="G13" t="n">
         <v>85.8</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>+0.60</t>
-        </is>
+      <c r="H13" t="n">
+        <v>0.6</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -3678,10 +3602,8 @@
       <c r="BL13" t="b">
         <v>0</v>
       </c>
-      <c r="BM13" t="inlineStr">
-        <is>
-          <t>6796</t>
-        </is>
+      <c r="BM13" t="n">
+        <v>6796</v>
       </c>
       <c r="BN13" t="n">
         <v>0.65</v>
@@ -3700,10 +3622,8 @@
       <c r="BR13" t="n">
         <v>85.8</v>
       </c>
-      <c r="BS13" t="inlineStr">
-        <is>
-          <t>+0.60</t>
-        </is>
+      <c r="BS13" t="n">
+        <v>0.6</v>
       </c>
       <c r="BT13" t="inlineStr">
         <is>
@@ -3724,23 +3644,17 @@
       <c r="D14" t="n">
         <v>107.5</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>108.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>106.00</t>
-        </is>
+      <c r="E14" t="n">
+        <v>108</v>
+      </c>
+      <c r="F14" t="n">
+        <v>106</v>
       </c>
       <c r="G14" t="n">
         <v>106</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
+      <c r="H14" t="n">
+        <v>-0.5</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -3924,10 +3838,8 @@
       <c r="BL14" t="b">
         <v>0</v>
       </c>
-      <c r="BM14" t="inlineStr">
-        <is>
-          <t>6799</t>
-        </is>
+      <c r="BM14" t="n">
+        <v>6799</v>
       </c>
       <c r="BN14" t="n">
         <v>0.95</v>
@@ -3946,10 +3858,8 @@
       <c r="BR14" t="n">
         <v>106</v>
       </c>
-      <c r="BS14" t="inlineStr">
-        <is>
-          <t>-0.50</t>
-        </is>
+      <c r="BS14" t="n">
+        <v>-0.5</v>
       </c>
       <c r="BT14" t="inlineStr">
         <is>
@@ -3970,23 +3880,17 @@
       <c r="D15" t="n">
         <v>816</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>859.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>816.00</t>
-        </is>
+      <c r="E15" t="n">
+        <v>859</v>
+      </c>
+      <c r="F15" t="n">
+        <v>816</v>
       </c>
       <c r="G15" t="n">
         <v>846</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>+33.00</t>
-        </is>
+      <c r="H15" t="n">
+        <v>33</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -4170,10 +4074,8 @@
       <c r="BL15" t="b">
         <v>0</v>
       </c>
-      <c r="BM15" t="inlineStr">
-        <is>
-          <t>6805</t>
-        </is>
+      <c r="BM15" t="n">
+        <v>6805</v>
       </c>
       <c r="BN15" t="n">
         <v>0.9</v>
@@ -4192,14 +4094,1684 @@
       <c r="BR15" t="n">
         <v>846</v>
       </c>
-      <c r="BS15" t="inlineStr">
-        <is>
-          <t>+33.00</t>
-        </is>
+      <c r="BS15" t="n">
+        <v>33</v>
       </c>
       <c r="BT15" t="inlineStr">
         <is>
           <t>3.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B16" t="n">
+        <v>107003</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1371488</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>13.0623349629047</v>
+      </c>
+      <c r="O16" t="n">
+        <v>12.95653488737409</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1058000755306061</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1622886086545925</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1622886086545925</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.05648853312398644</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>10.66666666666664</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2864205</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2022675.16</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41.60479431605815</v>
+      </c>
+      <c r="AC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13.115</v>
+      </c>
+      <c r="AF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.1796570807585569</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.08459092740926584</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-0.01500000000000057</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>13.115</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2920436160648793</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>13.69908723212976</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12.53091276787024</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>42.37288135593222</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-1371488</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>-5707444</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>-107003</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>-435688</v>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0.04333333333333333</v>
+      </c>
+      <c r="BL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1466</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP16" t="n">
+        <v>11.52637812322471</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>12.8195122877342</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2162</v>
+      </c>
+      <c r="C17" t="n">
+        <v>344394</v>
+      </c>
+      <c r="D17" t="n">
+        <v>161</v>
+      </c>
+      <c r="E17" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>157</v>
+      </c>
+      <c r="G17" t="n">
+        <v>157</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2,046</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>153.5287886722764</v>
+      </c>
+      <c r="O17" t="n">
+        <v>151.5201415591674</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.008647113109049</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.9043850951810353</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9043850951810353</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.104262017928014</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>148</v>
+      </c>
+      <c r="V17" t="n">
+        <v>161</v>
+      </c>
+      <c r="W17" t="n">
+        <v>69.23076923076923</v>
+      </c>
+      <c r="X17" t="n">
+        <v>89.74358974358972</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>208497.85</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>165261.46</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26.16241560494504</v>
+      </c>
+      <c r="AC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>155.7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="AF17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.269630415337645</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.5521674464312225</v>
+      </c>
+      <c r="AI17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.199999999999989</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.3500000000000227</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>4.127570969137792</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>159.0551419382756</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>142.5448580617244</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>-344394</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1715926</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>-2162</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>10765</v>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:red;'&gt;[股價高於短期均線，短期均線高於長期均線]：買入信號&lt;/span&gt;&lt;br&gt;均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="BB17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.02499999999999999</v>
+      </c>
+      <c r="BE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BF17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>均線:上漲趨勢</t>
+        </is>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BI17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0.1916666666666667</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0.09999999999999996</v>
+      </c>
+      <c r="BL17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>3217</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP17" t="n">
+        <v>121.9783466517623</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>159.7627492386487</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>157</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>-2.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B18" t="n">
+        <v>184588</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18906805</v>
+      </c>
+      <c r="D18" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>102</v>
+      </c>
+      <c r="G18" t="n">
+        <v>102</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>106.2035808011037</v>
+      </c>
+      <c r="O18" t="n">
+        <v>112.4404682585124</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-6.23688745740877</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-5.790729049501529</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-5.790729049501529</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.4461584079072409</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>102</v>
+      </c>
+      <c r="V18" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>88672182.09999999</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>133035316.24</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-33.34688516842211</v>
+      </c>
+      <c r="AC18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>112.025</v>
+      </c>
+      <c r="AF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.197961231048936</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3.807755244235312</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.2999999999999972</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-1.324999999999989</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>112.025</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>11.29796791230051</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>134.620935824601</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>89.42906417539898</v>
+      </c>
+      <c r="AP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>14.51612903225806</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-18906805</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-100410228</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-184588</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>-973917</v>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;&lt;span style='color:green;'&gt;[成交量低於均線，成交量震盪指標為負]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0.01666666666666667</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0.02333333333333332</v>
+      </c>
+      <c r="BL18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1786</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP18" t="n">
+        <v>74.92083286424872</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>103.6974319759339</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>102</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>-1.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>668</v>
+      </c>
+      <c r="D19" t="n">
+        <v>59</v>
+      </c>
+      <c r="E19" t="n">
+        <v>59</v>
+      </c>
+      <c r="F19" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>58.76242759734411</v>
+      </c>
+      <c r="O19" t="n">
+        <v>60.21722510891533</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-1.454797511571222</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-1.440405317878555</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-1.440405317878555</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.01439219369266675</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>57</v>
+      </c>
+      <c r="V19" t="n">
+        <v>60</v>
+      </c>
+      <c r="W19" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5.55555555555554</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1942.85</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2620.68</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-25.86466108033029</v>
+      </c>
+      <c r="AC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>57.98</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>59.575</v>
+      </c>
+      <c r="AF19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.5794250023376613</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.6162658607382864</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>-0.3400000000000105</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-0.2299999999999898</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>59.575</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.477150528622019</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>62.52930105724404</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>56.62069894275596</v>
+      </c>
+      <c r="AP19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>33.73493975903612</v>
+      </c>
+      <c r="AR19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>668</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>-1480</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>-26</v>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AY19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;&lt;span style='color:red;'&gt;[KD 指標 %K 高於 %D]：買入信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.06666666666666664</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0.07000000000000002</v>
+      </c>
+      <c r="BL19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>6840</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP19" t="n">
+        <v>56.37498874783681</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>84.97986689520779</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>-2.54%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B20" t="n">
+        <v>146564</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3103693</v>
+      </c>
+      <c r="D20" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>21</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>21.79366796728802</v>
+      </c>
+      <c r="O20" t="n">
+        <v>21.93958321152699</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.1459152442389708</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.03253267639833252</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.03253267639833252</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.1133825678406383</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>21</v>
+      </c>
+      <c r="V20" t="n">
+        <v>22.45</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>22.2222222222223</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>6079664.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>14631408.56</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-58.4478522688454</v>
+      </c>
+      <c r="AC20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>22.0825</v>
+      </c>
+      <c r="AF20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2268234751712578</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1925155116400379</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-0.1225000000000023</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>22.0825</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.7116095543870438</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>23.50571910877409</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>20.65928089122591</v>
+      </c>
+      <c r="AP20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>37.86407766990293</v>
+      </c>
+      <c r="AR20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>-0.3999999999999986</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>-3103693</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>2761953</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>-146564</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>116187</v>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;&lt;span style='color:green;'&gt;[成交量低於均線，成交量震盪指標為負]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0.08333333333333336</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0.05666666666666668</v>
+      </c>
+      <c r="BL20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>4989</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP20" t="n">
+        <v>19.97886633405161</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>31.3912249901493</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>-1.87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7939402</v>
+      </c>
+      <c r="C21" t="n">
+        <v>206655755</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-2.00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4,967</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>27.60457409454224</v>
+      </c>
+      <c r="O21" t="n">
+        <v>27.24701908702484</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.3575550075173979</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5207068840201011</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5207068840201011</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.1631518765027032</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="V21" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>42.10526315789475</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>80283310.55</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>56011588.64</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>43.33339314119478</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>27.615</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.1591260855792081</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.3894872876263824</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>-0.4699999999999989</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-0.01000000000000156</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>27.615</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.7741038961957221</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>29.16320779239144</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>26.06679220760855</v>
+      </c>
+      <c r="AP21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>38.73873873873875</v>
+      </c>
+      <c r="AR21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>-206655755</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>-145666403</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>-7939402</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>-5830534</v>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>-0.02499999999999999</v>
+      </c>
+      <c r="BE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>均線:橫盤震盪</t>
+        </is>
+      </c>
+      <c r="BH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.04166666666666669</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BL21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="inlineStr">
+        <is>
+          <t>4532</t>
+        </is>
+      </c>
+      <c r="BN21" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP21" t="n">
+        <v>18.65543443538435</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>26.3680815463508</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>-2.00</t>
+        </is>
+      </c>
+      <c r="BT21" t="inlineStr">
+        <is>
+          <t>-4.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B22" t="n">
+        <v>345211</v>
+      </c>
+      <c r="C22" t="n">
+        <v>89938994</v>
+      </c>
+      <c r="D22" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>266.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>258.00</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>258</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1,264</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>10/30</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>272.002919902655</v>
+      </c>
+      <c r="O22" t="n">
+        <v>273.4630576879337</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-1.460137785278619</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3.182350009908174</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.182350009908174</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-4.642487795186793</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>258</v>
+      </c>
+      <c r="V22" t="n">
+        <v>288</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>286499819.2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>332886927.52</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-13.93479421543612</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>264.8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>280.975</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>5.77378173779061</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>2.521964622171265</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-1.449999999999989</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>280.975</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>12.59435441608412</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>306.1637088321683</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>255.7862911678318</v>
+      </c>
+      <c r="AP22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>33.97435897435898</v>
+      </c>
+      <c r="AR22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>-89938994</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>-359140071</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>-345211</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>-1370228</v>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AY22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;&lt;span style='color:green;'&gt;[成交量低於均線，成交量震盪指標為負]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="BL22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="inlineStr">
+        <is>
+          <t>6863</t>
+        </is>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP22" t="n">
+        <v>95.72885550600952</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>269.0701266822856</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>258</v>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="BT22" t="inlineStr">
+        <is>
+          <t>-3.19%</t>
         </is>
       </c>
     </row>
